--- a/data/financial_statements/sofp/CBOE.xlsx
+++ b/data/financial_statements/sofp/CBOE.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -131,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,144 +607,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>355000000</v>
+        <v>380700000</v>
       </c>
       <c r="C2">
-        <v>416000000</v>
+        <v>441800000</v>
       </c>
       <c r="D2">
-        <v>681000000</v>
+        <v>708100000</v>
       </c>
       <c r="E2">
-        <v>351000000</v>
+        <v>379000000</v>
       </c>
       <c r="F2">
-        <v>393000000</v>
+        <v>419100000</v>
       </c>
       <c r="G2">
         <v>569600000</v>
@@ -739,8 +850,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>419700000</v>
@@ -861,8 +972,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1096600000</v>
@@ -983,8 +1094,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1897000000</v>
@@ -1105,23 +1216,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>222000000</v>
+        <v>105800000</v>
       </c>
       <c r="C6">
-        <v>235000000</v>
+        <v>107500000</v>
       </c>
       <c r="D6">
-        <v>232000000</v>
+        <v>106700000</v>
       </c>
       <c r="E6">
-        <v>218000000</v>
+        <v>105200000</v>
       </c>
       <c r="F6">
-        <v>219000000</v>
+        <v>102400000</v>
       </c>
       <c r="G6">
         <v>95600000</v>
@@ -1227,8 +1338,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>253600000</v>
@@ -1349,23 +1460,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>4820000000</v>
+        <v>4780000000</v>
       </c>
       <c r="C8">
-        <v>4965000000</v>
+        <v>4924800000</v>
       </c>
       <c r="D8">
-        <v>4684000000</v>
+        <v>4646700000</v>
       </c>
       <c r="E8">
-        <v>4733000000</v>
+        <v>4694000000</v>
       </c>
       <c r="F8">
-        <v>4765000000</v>
+        <v>4725700000</v>
       </c>
       <c r="G8">
         <v>4569900000</v>
@@ -1471,23 +1582,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>1102000000</v>
+        <v>144500000</v>
       </c>
       <c r="C9">
-        <v>1057000000</v>
+        <v>140400000</v>
       </c>
       <c r="D9">
-        <v>1855000000</v>
+        <v>140200000</v>
       </c>
       <c r="E9">
-        <v>791000000</v>
+        <v>125800000</v>
       </c>
       <c r="F9">
-        <v>1715000000</v>
+        <v>103400000</v>
       </c>
       <c r="G9">
         <v>93100000</v>
@@ -1548,8 +1659,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>5400400000</v>
@@ -1670,23 +1781,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>7297000000</v>
+        <v>7297400000</v>
       </c>
       <c r="C11">
-        <v>7476000000</v>
+        <v>7476100000</v>
       </c>
       <c r="D11">
-        <v>8198000000</v>
+        <v>8198100000</v>
       </c>
       <c r="E11">
-        <v>6908000000</v>
+        <v>6814500000</v>
       </c>
       <c r="F11">
-        <v>7583000000</v>
+        <v>7582700000</v>
       </c>
       <c r="G11">
         <v>7096500000</v>
@@ -1792,8 +1903,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>401100000</v>
@@ -1914,8 +2025,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C13">
         <v>22700000</v>
@@ -1931,11 +2042,11 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>18000000</v>
+        <v>37200000</v>
       </c>
       <c r="C14">
         <v>20000000</v>
@@ -1944,7 +2055,7 @@
         <v>17000000</v>
       </c>
       <c r="E14">
-        <v>16000000</v>
+        <v>63800000</v>
       </c>
       <c r="F14">
         <v>15000000</v>
@@ -1984,8 +2095,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2079,8 +2190,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>15600000</v>
@@ -2198,8 +2309,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1053300000</v>
@@ -2317,8 +2428,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1545200000</v>
@@ -2439,23 +2550,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1992000000</v>
+        <v>1859800000</v>
       </c>
       <c r="C19">
-        <v>2099000000</v>
+        <v>1959200000</v>
       </c>
       <c r="D19">
-        <v>1735000000</v>
+        <v>1593600000</v>
       </c>
       <c r="E19">
-        <v>1429000000</v>
+        <v>1299300000</v>
       </c>
       <c r="F19">
-        <v>1432000000</v>
+        <v>1298900000</v>
       </c>
       <c r="G19">
         <v>1298500000</v>
@@ -2513,8 +2624,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>16000000</v>
@@ -2554,8 +2665,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="Z21">
         <v>1922000</v>
@@ -2604,23 +2715,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>424000000</v>
+        <v>239100000</v>
       </c>
       <c r="C22">
-        <v>426000000</v>
+        <v>252600000</v>
       </c>
       <c r="D22">
-        <v>515000000</v>
+        <v>352400000</v>
       </c>
       <c r="E22">
-        <v>571000000</v>
+        <v>372700000</v>
       </c>
       <c r="F22">
-        <v>591000000</v>
+        <v>393900000</v>
       </c>
       <c r="G22">
         <v>384100000</v>
@@ -2723,8 +2834,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="O23">
         <v>5800000</v>
@@ -2770,23 +2881,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>1554000000</v>
+        <v>227700000</v>
       </c>
       <c r="C24">
-        <v>1647000000</v>
+        <v>263400000</v>
       </c>
       <c r="D24">
-        <v>2337000000</v>
+        <v>202400000</v>
       </c>
       <c r="E24">
-        <v>1180000000</v>
+        <v>239200000</v>
       </c>
       <c r="F24">
-        <v>2034000000</v>
+        <v>242300000</v>
       </c>
       <c r="G24">
         <v>233400000</v>
@@ -2892,8 +3003,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2458400000</v>
@@ -3014,23 +3125,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>4004000000</v>
+        <v>4003600000</v>
       </c>
       <c r="C26">
-        <v>4214000000</v>
+        <v>4214200000</v>
       </c>
       <c r="D26">
-        <v>4631000000</v>
+        <v>4630800000</v>
       </c>
       <c r="E26">
-        <v>3303000000</v>
+        <v>3209700000</v>
       </c>
       <c r="F26">
-        <v>4086000000</v>
+        <v>4085700000</v>
       </c>
       <c r="G26">
         <v>3654000000</v>
@@ -3136,8 +3247,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>1532900000</v>
@@ -3258,23 +3369,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="C28">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="D28">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="E28">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="F28">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="G28">
         <v>1300000</v>
@@ -3380,23 +3491,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>2065000000</v>
+        <v>2064800000</v>
       </c>
       <c r="C29">
         <v>1968000000</v>
       </c>
       <c r="D29">
-        <v>2204000000</v>
+        <v>2203700000</v>
       </c>
       <c r="E29">
-        <v>2146000000</v>
+        <v>2145500000</v>
       </c>
       <c r="F29">
-        <v>2031000000</v>
+        <v>2031100000</v>
       </c>
       <c r="G29">
         <v>1962200000</v>
@@ -3502,8 +3613,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>201200000</v>
@@ -3624,20 +3735,20 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>3294000000</v>
+        <v>3293800000</v>
       </c>
       <c r="C31">
-        <v>3262000000</v>
+        <v>3261900000</v>
       </c>
       <c r="D31">
-        <v>3567000000</v>
+        <v>3567300000</v>
       </c>
       <c r="E31">
-        <v>3605000000</v>
+        <v>3604800000</v>
       </c>
       <c r="F31">
         <v>3497000000</v>
@@ -3746,20 +3857,20 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>3294000000</v>
+        <v>3293800000</v>
       </c>
       <c r="C32">
-        <v>3262000000</v>
+        <v>3261900000</v>
       </c>
       <c r="D32">
-        <v>3567000000</v>
+        <v>3567300000</v>
       </c>
       <c r="E32">
-        <v>3605000000</v>
+        <v>3604800000</v>
       </c>
       <c r="F32">
         <v>3497000000</v>
@@ -3868,8 +3979,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>7297400000</v>
@@ -3990,8 +4101,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>108413000</v>
@@ -4112,8 +4223,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>-1486200000</v>
@@ -4234,23 +4345,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>1655000000</v>
+        <v>1516300000</v>
       </c>
       <c r="C36">
-        <v>1703000000</v>
+        <v>1537400000</v>
       </c>
       <c r="D36">
-        <v>1071000000</v>
+        <v>902500000</v>
       </c>
       <c r="E36">
-        <v>1094000000</v>
+        <v>984100000</v>
       </c>
       <c r="F36">
-        <v>1054000000</v>
+        <v>894800000</v>
       </c>
       <c r="G36">
         <v>742900000</v>
@@ -4356,23 +4467,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>2010000000</v>
+        <v>1897000000</v>
       </c>
       <c r="C37">
-        <v>2119000000</v>
+        <v>1979200000</v>
       </c>
       <c r="D37">
-        <v>1752000000</v>
+        <v>1610600000</v>
       </c>
       <c r="E37">
-        <v>1445000000</v>
+        <v>1363100000</v>
       </c>
       <c r="F37">
-        <v>1447000000</v>
+        <v>1313900000</v>
       </c>
       <c r="G37">
         <v>1312500000</v>
